--- a/experiment/excel/non_expert_data4.xlsx
+++ b/experiment/excel/non_expert_data4.xlsx
@@ -464,12 +464,12 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>交易时间</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>时间</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -534,12 +534,12 @@
           <t>协商成交</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>每个交易日9:15-11:30、13:00-15:30</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -590,12 +590,12 @@
           <t>协商成交</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>0:00-9:15、11:00-13:00、15:30-24:00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -646,12 +646,12 @@
           <t>协商成交</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>每个交易日9:15-11:30、13:00-15:30</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -702,12 +702,12 @@
           <t>协商成交</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>0:00-9:15、11:00-13:00、15:30-24:00</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -758,12 +758,12 @@
           <t>申报</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>当天全天</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
@@ -818,12 +818,12 @@
           <t>申报</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>当天全天</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
@@ -878,12 +878,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>每个交易日的15:05至15:30</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -934,12 +934,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>0:00-15:05至15:30-24:00</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -990,12 +990,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>每个交易日的15:05至15:30</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1046,12 +1046,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>0:00-15:05至15:30-24:00</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1102,12 +1102,12 @@
           <t>申报</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>当天</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
@@ -1162,12 +1162,12 @@
           <t>申报</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>当天</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
@@ -1670,12 +1670,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>上市首日</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
@@ -1730,12 +1730,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>上市首日</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
@@ -1790,12 +1790,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>上市首日</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
@@ -1850,12 +1850,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>上市首日</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
@@ -1910,12 +1910,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>除上市首日外</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
@@ -1970,12 +1970,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>除上市首日外</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -2030,12 +2030,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>除上市首日外</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -2090,12 +2090,12 @@
           <t>交易</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>除上市首日外</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
